--- a/zutnlp-cv/doc/log_201608040105_wanghai.xlsx
+++ b/zutnlp-cv/doc/log_201608040105_wanghai.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B361D188-4E61-4B97-8622-1E6B9733369D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{57323EE7-FCF2-4DD2-8D07-4BE698B56073}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +121,33 @@
   </si>
   <si>
     <t>fastjson初步了解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:30-21:30</t>
+  </si>
+  <si>
+    <t>完成Attribute实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装nodejs npm和学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单提交存在问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续学习nodejs   了解elementui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,7 +532,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -602,9 +629,48 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43301</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43302</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43304</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="9" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/zutnlp-cv/doc/log_201608040105_wanghai.xlsx
+++ b/zutnlp-cv/doc/log_201608040105_wanghai.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{57323EE7-FCF2-4DD2-8D07-4BE698B56073}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E4FC9CEC-8652-45D6-94EC-AF460641692B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,10 @@
   </si>
   <si>
     <t>正常学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习nodejs和elementUI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,7 +536,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -641,6 +645,9 @@
       </c>
       <c r="D6" t="s">
         <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
